--- a/Ing_economica/cap14/EJERCICIOS CAP14ALUM.xlsx
+++ b/Ing_economica/cap14/EJERCICIOS CAP14ALUM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\cap14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786069ED-0D83-4FDC-A020-9C602073E3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85400C4F-6B0E-4E93-B5B7-113FF60A3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98A2743A-9BE0-4866-A665-CE012AAF3338}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8528D1BC-6E05-4260-BC92-2675FABBCCAA}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
